--- a/app-conf/data/datarep/species/templates/Definitions.xlsx
+++ b/app-conf/data/datarep/species/templates/Definitions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="205">
   <si>
     <t>S.No.</t>
   </si>
@@ -635,68 +635,86 @@
   <si>
     <t>Links to all documents on IBP referred to/associated with/ used in this entire page</t>
   </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Place holder for images</t>
+  </si>
+  <si>
+    <t>Meta data</t>
+  </si>
+  <si>
+    <t>Place holder for marking meta data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="9">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
+      <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
+      <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
+      <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <i val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
-      <color rgb="00333333"/>
-      <sz val="10"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -708,7 +726,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -717,58 +735,75 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -776,25 +811,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.27058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.8862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.96078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.5843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.3490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.7333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.27125506072875"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.582995951417"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78947368421053"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -814,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -830,13 +867,15 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
@@ -844,7 +883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -854,6 +893,7 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="0"/>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
@@ -861,7 +901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -871,6 +911,7 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
@@ -878,7 +919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -888,6 +929,7 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
@@ -895,7 +937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -915,7 +957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -935,7 +977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -945,6 +987,7 @@
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D9" s="0"/>
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
@@ -952,7 +995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -972,7 +1015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -992,7 +1035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="47.75" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -1016,7 +1059,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -1033,7 +1076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -1053,7 +1096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -1073,7 +1116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -1093,7 +1136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -1103,6 +1146,7 @@
       <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="D17" s="0"/>
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1110,7 +1154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -1130,7 +1174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="191.75" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -1147,7 +1191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -1164,7 +1208,7 @@
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -1184,7 +1228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -1204,7 +1248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -1224,7 +1268,7 @@
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -1244,7 +1288,7 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -1264,7 +1308,7 @@
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -1284,7 +1328,7 @@
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -1304,7 +1348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -1324,7 +1368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -1344,7 +1388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -1364,7 +1408,7 @@
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -1384,7 +1428,7 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -1404,7 +1448,7 @@
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -1424,7 +1468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -1444,7 +1488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -1461,7 +1505,7 @@
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -1481,7 +1525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -1491,11 +1535,12 @@
       <c r="C37" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="D37" s="0"/>
       <c r="E37" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -1505,6 +1550,7 @@
       <c r="C38" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="D38" s="0"/>
       <c r="E38" s="1" t="s">
         <v>79</v>
       </c>
@@ -1512,7 +1558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -1522,6 +1568,7 @@
       <c r="C39" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="D39" s="0"/>
       <c r="E39" s="1" t="s">
         <v>82</v>
       </c>
@@ -1529,7 +1576,7 @@
         <v>83</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -1539,6 +1586,7 @@
       <c r="C40" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D40" s="0"/>
       <c r="E40" s="1" t="s">
         <v>85</v>
       </c>
@@ -1546,7 +1594,7 @@
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -1556,6 +1604,7 @@
       <c r="C41" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="D41" s="0"/>
       <c r="E41" s="1" t="s">
         <v>88</v>
       </c>
@@ -1563,7 +1612,7 @@
         <v>89</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -1573,6 +1622,7 @@
       <c r="C42" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="D42" s="0"/>
       <c r="E42" s="1" t="s">
         <v>91</v>
       </c>
@@ -1580,7 +1630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -1590,6 +1640,7 @@
       <c r="C43" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="D43" s="0"/>
       <c r="E43" s="1" t="s">
         <v>94</v>
       </c>
@@ -1597,7 +1648,7 @@
         <v>95</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -1607,6 +1658,7 @@
       <c r="C44" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="D44" s="0"/>
       <c r="E44" s="1" t="s">
         <v>97</v>
       </c>
@@ -1614,7 +1666,7 @@
         <v>98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -1624,6 +1676,7 @@
       <c r="C45" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="D45" s="0"/>
       <c r="E45" s="1" t="s">
         <v>100</v>
       </c>
@@ -1631,7 +1684,7 @@
         <v>101</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -1641,6 +1694,7 @@
       <c r="C46" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="D46" s="0"/>
       <c r="E46" s="1" t="s">
         <v>103</v>
       </c>
@@ -1648,7 +1702,7 @@
         <v>104</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -1658,6 +1712,7 @@
       <c r="C47" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="D47" s="0"/>
       <c r="E47" s="1" t="s">
         <v>106</v>
       </c>
@@ -1665,7 +1720,7 @@
         <v>107</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -1675,6 +1730,7 @@
       <c r="C48" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D48" s="0"/>
       <c r="E48" s="1" t="s">
         <v>109</v>
       </c>
@@ -1682,7 +1738,7 @@
         <v>110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -1692,6 +1748,7 @@
       <c r="C49" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="D49" s="0"/>
       <c r="E49" s="1" t="s">
         <v>112</v>
       </c>
@@ -1699,7 +1756,7 @@
         <v>113</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -1709,6 +1766,7 @@
       <c r="C50" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="D50" s="0"/>
       <c r="E50" s="1" t="s">
         <v>115</v>
       </c>
@@ -1716,7 +1774,7 @@
         <v>116</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -1726,6 +1784,7 @@
       <c r="C51" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="D51" s="0"/>
       <c r="E51" s="1" t="s">
         <v>118</v>
       </c>
@@ -1733,7 +1792,7 @@
         <v>119</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -1743,6 +1802,7 @@
       <c r="C52" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D52" s="0"/>
       <c r="E52" s="1" t="s">
         <v>121</v>
       </c>
@@ -1750,7 +1810,7 @@
         <v>122</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
@@ -1760,6 +1820,7 @@
       <c r="C53" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="D53" s="0"/>
       <c r="E53" s="1" t="s">
         <v>124</v>
       </c>
@@ -1767,7 +1828,7 @@
         <v>125</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -1777,6 +1838,7 @@
       <c r="C54" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="D54" s="0"/>
       <c r="E54" s="1" t="s">
         <v>127</v>
       </c>
@@ -1784,7 +1846,7 @@
         <v>128</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
@@ -1794,6 +1856,7 @@
       <c r="C55" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="D55" s="0"/>
       <c r="E55" s="1" t="s">
         <v>130</v>
       </c>
@@ -1801,7 +1864,7 @@
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
@@ -1811,6 +1874,7 @@
       <c r="C56" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="D56" s="0"/>
       <c r="E56" s="1" t="s">
         <v>133</v>
       </c>
@@ -1818,7 +1882,7 @@
         <v>134</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -1828,6 +1892,7 @@
       <c r="C57" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D57" s="0"/>
       <c r="E57" s="1" t="s">
         <v>136</v>
       </c>
@@ -1835,7 +1900,7 @@
         <v>137</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
@@ -1845,6 +1910,7 @@
       <c r="C58" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="D58" s="0"/>
       <c r="E58" s="1" t="s">
         <v>139</v>
       </c>
@@ -1852,7 +1918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -1862,6 +1928,7 @@
       <c r="C59" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D59" s="0"/>
       <c r="E59" s="1" t="s">
         <v>142</v>
       </c>
@@ -1869,7 +1936,7 @@
         <v>143</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -1889,7 +1956,7 @@
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -1909,7 +1976,7 @@
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -1929,7 +1996,7 @@
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -1939,6 +2006,7 @@
       <c r="C63" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="D63" s="0"/>
       <c r="E63" s="1" t="s">
         <v>152</v>
       </c>
@@ -1946,7 +2014,7 @@
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -1966,7 +2034,7 @@
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
@@ -1986,7 +2054,7 @@
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -1996,11 +2064,12 @@
       <c r="C66" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="D66" s="0"/>
       <c r="E66" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -2010,6 +2079,7 @@
       <c r="C67" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="D67" s="0"/>
       <c r="E67" s="1" t="s">
         <v>162</v>
       </c>
@@ -2017,7 +2087,7 @@
         <v>163</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -2027,6 +2097,7 @@
       <c r="C68" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="D68" s="0"/>
       <c r="E68" s="1" t="s">
         <v>165</v>
       </c>
@@ -2034,7 +2105,7 @@
         <v>166</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="69">
+    <row r="69" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -2044,6 +2115,7 @@
       <c r="C69" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="D69" s="0"/>
       <c r="E69" s="1" t="s">
         <v>168</v>
       </c>
@@ -2051,7 +2123,7 @@
         <v>169</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
@@ -2061,6 +2133,7 @@
       <c r="C70" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="D70" s="0"/>
       <c r="E70" s="1" t="s">
         <v>171</v>
       </c>
@@ -2068,7 +2141,7 @@
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
@@ -2078,6 +2151,7 @@
       <c r="C71" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="D71" s="0"/>
       <c r="E71" s="1" t="s">
         <v>174</v>
       </c>
@@ -2085,7 +2159,7 @@
         <v>175</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
@@ -2095,6 +2169,7 @@
       <c r="C72" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="D72" s="0"/>
       <c r="E72" s="1" t="s">
         <v>177</v>
       </c>
@@ -2102,7 +2177,7 @@
         <v>178</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
@@ -2112,6 +2187,7 @@
       <c r="C73" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="D73" s="0"/>
       <c r="E73" s="1" t="s">
         <v>180</v>
       </c>
@@ -2119,7 +2195,7 @@
         <v>181</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="74">
+    <row r="74" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
@@ -2129,6 +2205,7 @@
       <c r="C74" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="D74" s="0"/>
       <c r="E74" s="1" t="s">
         <v>184</v>
       </c>
@@ -2136,7 +2213,7 @@
         <v>185</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
@@ -2146,11 +2223,13 @@
       <c r="C75" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
       <c r="F75" s="0" t="s">
         <v>187</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="76">
+    <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
@@ -2160,6 +2239,7 @@
       <c r="C76" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="D76" s="0"/>
       <c r="E76" s="1" t="s">
         <v>189</v>
       </c>
@@ -2167,7 +2247,7 @@
         <v>190</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
@@ -2180,8 +2260,9 @@
       <c r="D77" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="78">
+      <c r="E77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
@@ -2194,8 +2275,9 @@
       <c r="D78" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="79">
+      <c r="E78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
@@ -2208,8 +2290,9 @@
       <c r="D79" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="80">
+      <c r="E79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
@@ -2222,8 +2305,9 @@
       <c r="D80" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="81">
+      <c r="E80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
@@ -2236,8 +2320,9 @@
       <c r="D81" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="82">
+      <c r="E81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
@@ -2251,7 +2336,7 @@
         <v>198</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="83">
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
@@ -2265,76 +2350,104 @@
         <v>200</v>
       </c>
     </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/taxonID" ref="F2" r:id="rId1"/>
-    <hyperlink display="http://rs.tdwg.org/pccore/BaseElements/GlobalUniqueIdentifier" ref="F3" r:id="rId2"/>
-    <hyperlink display="http://rs.tdwg.org/pccore/Abstract" ref="F4" r:id="rId3"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription" location="DiagnosticDescription" ref="F6" r:id="rId4"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription" location="DiagnosticDescription" ref="F7" r:id="rId5"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription" location="DiagnosticDescription" ref="F8" r:id="rId6"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription" location="DiagnosticDescription" ref="F9" r:id="rId7"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription" location="DiagnosticDescription" ref="F10" r:id="rId8"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription" location="DiagnosticDescription" ref="F11" r:id="rId9"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/scientificName" ref="F12" r:id="rId10"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/vernacularName " ref="F17" r:id="rId11"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/scientificName" ref="F18" r:id="rId12"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/kingdom" ref="F21" r:id="rId13"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/phylum" ref="F22" r:id="rId14"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/class" ref="F23" r:id="rId15"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/order" ref="F24" r:id="rId16"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/family" ref="F25" r:id="rId17"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/genus" ref="F26" r:id="rId18"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/scientificName" ref="F27" r:id="rId19"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/kingdom" ref="F28" r:id="rId20"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/phylum" ref="F29" r:id="rId21"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/class" ref="F30" r:id="rId22"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/order" ref="F31" r:id="rId23"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/family" ref="F32" r:id="rId24"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/subfamily" ref="F33" r:id="rId25"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/genus" ref="F34" r:id="rId26"/>
-    <hyperlink display="http://rs.tdwg.org/dwc/terms/scientificName" ref="F36" r:id="rId27"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#LifeCycle" location="LifeCycle" ref="F38" r:id="rId28"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Cyclicity" location="Cyclicity" ref="F39" r:id="rId29"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Reproduction" location="Reproduction" ref="F40" r:id="rId30"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Migration" location="Migration" ref="F41" r:id="rId31"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Dispersal" location="Dispersal" ref="F42" r:id="rId32"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#LifeExpectancy" location="LifeExpectancy" ref="F43" r:id="rId33"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Size" location="Size" ref="F44" r:id="rId34"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Growth" location="Growth" ref="F45" r:id="rId35"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Morphology" location="Morphology" ref="F46" r:id="rId36"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#LookAlikes" location="LookAlikes" ref="F47" r:id="rId37"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Physiology" location="Physiology" ref="F48" r:id="rId38"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Ecology" location="Ecology" ref="F49" r:id="rId39"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Behaviour" location="Behaviour" ref="F50" r:id="rId40"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#TrophicStrategy" location="TrophicStrategy" ref="F51" r:id="rId41"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Associations" location="Associations" ref="F52" r:id="rId42"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Evolution" location="Evolution" ref="F53" r:id="rId43"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Cytology" location="Cytology" ref="F54" r:id="rId44"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Genetics" location="Genetics" ref="F55" r:id="rId45"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#MolecularBiology" location="MolecularBiology" ref="F56" r:id="rId46"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Diseases" location="Diseases" ref="F57" r:id="rId47"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Habitat" location="Habitat" ref="F59" r:id="rId48"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution" location="Distribution" ref="F60" r:id="rId49"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution" location="Distribution" ref="F61" r:id="rId50"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution" location="Distribution" ref="F62" r:id="rId51"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution" location="Distribution" ref="F63" r:id="rId52"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution" location="Distribution" ref="F64" r:id="rId53"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution" location="Distribution" ref="F65" r:id="rId54"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#PopulationBiology" location="PopulationBiology" ref="F67" r:id="rId55"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Trends" location="Trends" ref="F68" r:id="rId56"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#RiskStatement" location="RiskStatement" ref="F69" r:id="rId57"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#ConservationStatus" location="ConservationStatus" ref="F70" r:id="rId58"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Threats" location="Threats" ref="F71" r:id="rId59"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Legislation" location="Legislation" ref="F72" r:id="rId60"/>
-    <hyperlink display="http://rs.tdwg.org/pccore/LegislationType/ProtectionLegalStatus" ref="F73" r:id="rId61"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Use" location="Use" ref="F74" r:id="rId62"/>
-    <hyperlink display="http://rs.tdwg.org/pccore/Folklore" ref="F75" r:id="rId63"/>
-    <hyperlink display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Management" location="Management" ref="F76" r:id="rId64"/>
+    <hyperlink ref="F2" r:id="rId1" display="http://rs.tdwg.org/dwc/terms/taxonID"/>
+    <hyperlink ref="F3" r:id="rId2" display="http://rs.tdwg.org/pccore/BaseElements/GlobalUniqueIdentifier"/>
+    <hyperlink ref="F4" r:id="rId3" display="http://rs.tdwg.org/pccore/Abstract"/>
+    <hyperlink ref="F6" r:id="rId4" location="DiagnosticDescription" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription"/>
+    <hyperlink ref="F7" r:id="rId5" location="DiagnosticDescription" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription"/>
+    <hyperlink ref="F8" r:id="rId6" location="DiagnosticDescription" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription"/>
+    <hyperlink ref="F9" r:id="rId7" location="DiagnosticDescription" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription"/>
+    <hyperlink ref="F10" r:id="rId8" location="DiagnosticDescription" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription"/>
+    <hyperlink ref="F11" r:id="rId9" location="DiagnosticDescription" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#DiagnosticDescription"/>
+    <hyperlink ref="F12" r:id="rId10" display="http://rs.tdwg.org/dwc/terms/scientificName"/>
+    <hyperlink ref="F17" r:id="rId11" display="http://rs.tdwg.org/dwc/terms/vernacularName "/>
+    <hyperlink ref="F18" r:id="rId12" display="http://rs.tdwg.org/dwc/terms/scientificName"/>
+    <hyperlink ref="F21" r:id="rId13" display="http://rs.tdwg.org/dwc/terms/kingdom"/>
+    <hyperlink ref="F22" r:id="rId14" display="http://rs.tdwg.org/dwc/terms/phylum"/>
+    <hyperlink ref="F23" r:id="rId15" display="http://rs.tdwg.org/dwc/terms/class"/>
+    <hyperlink ref="F24" r:id="rId16" display="http://rs.tdwg.org/dwc/terms/order"/>
+    <hyperlink ref="F25" r:id="rId17" display="http://rs.tdwg.org/dwc/terms/family"/>
+    <hyperlink ref="F26" r:id="rId18" display="http://rs.tdwg.org/dwc/terms/genus"/>
+    <hyperlink ref="F27" r:id="rId19" display="http://rs.tdwg.org/dwc/terms/scientificName"/>
+    <hyperlink ref="F28" r:id="rId20" display="http://rs.tdwg.org/dwc/terms/kingdom"/>
+    <hyperlink ref="F29" r:id="rId21" display="http://rs.tdwg.org/dwc/terms/phylum"/>
+    <hyperlink ref="F30" r:id="rId22" display="http://rs.tdwg.org/dwc/terms/class"/>
+    <hyperlink ref="F31" r:id="rId23" display="http://rs.tdwg.org/dwc/terms/order"/>
+    <hyperlink ref="F32" r:id="rId24" display="http://rs.tdwg.org/dwc/terms/family"/>
+    <hyperlink ref="F33" r:id="rId25" display="http://rs.tdwg.org/dwc/terms/subfamily"/>
+    <hyperlink ref="F34" r:id="rId26" display="http://rs.tdwg.org/dwc/terms/genus"/>
+    <hyperlink ref="F36" r:id="rId27" display="http://rs.tdwg.org/dwc/terms/scientificName"/>
+    <hyperlink ref="F38" r:id="rId28" location="LifeCycle" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#LifeCycle"/>
+    <hyperlink ref="F39" r:id="rId29" location="Cyclicity" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Cyclicity"/>
+    <hyperlink ref="F40" r:id="rId30" location="Reproduction" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Reproduction"/>
+    <hyperlink ref="F41" r:id="rId31" location="Migration" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Migration"/>
+    <hyperlink ref="F42" r:id="rId32" location="Dispersal" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Dispersal"/>
+    <hyperlink ref="F43" r:id="rId33" location="LifeExpectancy" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#LifeExpectancy"/>
+    <hyperlink ref="F44" r:id="rId34" location="Size" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Size"/>
+    <hyperlink ref="F45" r:id="rId35" location="Growth" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Growth"/>
+    <hyperlink ref="F46" r:id="rId36" location="Morphology" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Morphology"/>
+    <hyperlink ref="F47" r:id="rId37" location="LookAlikes" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#LookAlikes"/>
+    <hyperlink ref="F48" r:id="rId38" location="Physiology" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Physiology"/>
+    <hyperlink ref="F49" r:id="rId39" location="Ecology" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Ecology"/>
+    <hyperlink ref="F50" r:id="rId40" location="Behaviour" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Behaviour"/>
+    <hyperlink ref="F51" r:id="rId41" location="TrophicStrategy" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#TrophicStrategy"/>
+    <hyperlink ref="F52" r:id="rId42" location="Associations" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Associations"/>
+    <hyperlink ref="F53" r:id="rId43" location="Evolution" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Evolution"/>
+    <hyperlink ref="F54" r:id="rId44" location="Cytology" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Cytology"/>
+    <hyperlink ref="F55" r:id="rId45" location="Genetics" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Genetics"/>
+    <hyperlink ref="F56" r:id="rId46" location="MolecularBiology" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#MolecularBiology"/>
+    <hyperlink ref="F57" r:id="rId47" location="Diseases" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Diseases"/>
+    <hyperlink ref="F59" r:id="rId48" location="Habitat" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Habitat"/>
+    <hyperlink ref="F60" r:id="rId49" location="Distribution" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution"/>
+    <hyperlink ref="F61" r:id="rId50" location="Distribution" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution"/>
+    <hyperlink ref="F62" r:id="rId51" location="Distribution" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution"/>
+    <hyperlink ref="F63" r:id="rId52" location="Distribution" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution"/>
+    <hyperlink ref="F64" r:id="rId53" location="Distribution" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution"/>
+    <hyperlink ref="F65" r:id="rId54" location="Distribution" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Distribution"/>
+    <hyperlink ref="F67" r:id="rId55" location="PopulationBiology" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#PopulationBiology"/>
+    <hyperlink ref="F68" r:id="rId56" location="Trends" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Trends"/>
+    <hyperlink ref="F69" r:id="rId57" location="RiskStatement" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#RiskStatement"/>
+    <hyperlink ref="F70" r:id="rId58" location="ConservationStatus" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#ConservationStatus"/>
+    <hyperlink ref="F71" r:id="rId59" location="Threats" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Threats"/>
+    <hyperlink ref="F72" r:id="rId60" location="Legislation" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Legislation"/>
+    <hyperlink ref="F73" r:id="rId61" display="http://rs.tdwg.org/pccore/LegislationType/ProtectionLegalStatus"/>
+    <hyperlink ref="F74" r:id="rId62" location="Use" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Use"/>
+    <hyperlink ref="F75" r:id="rId63" display="http://rs.tdwg.org/pccore/Folklore"/>
+    <hyperlink ref="F76" r:id="rId64" location="Management" display="http://rs.tdwg.org/ontology/voc/SPMInfoItems#Management"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2345,21 +2458,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78947368421053"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2370,21 +2485,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78947368421053"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
